--- a/Assets/邮件文本表.xlsx
+++ b/Assets/邮件文本表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Novelist_Game\Nonsense_Novelist\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB76EB74-2466-4F55-969F-22075C8D32C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553D2528-8B07-4A18-A089-743D808DC1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9120" yWindow="1320" windowWidth="17190" windowHeight="11090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -309,9 +309,6 @@
   <si>
     <t>您的忠实粉丝彼得</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佐佐木编辑</t>
   </si>
   <si>
     <t>佐佐木编辑</t>
@@ -696,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -793,10 +790,10 @@
         <v>63</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>16</v>
@@ -823,10 +820,10 @@
         <v>62</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>16</v>
@@ -855,10 +852,10 @@
         <v>64</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>15</v>
@@ -885,10 +882,10 @@
         <v>67</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>15</v>
@@ -917,10 +914,10 @@
         <v>66</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>15</v>
@@ -947,10 +944,10 @@
         <v>65</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>15</v>
@@ -979,10 +976,10 @@
         <v>50</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>15</v>
@@ -1011,10 +1008,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>15</v>
@@ -1043,10 +1040,10 @@
         <v>52</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>15</v>
@@ -1075,10 +1072,10 @@
         <v>53</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>15</v>
@@ -1107,10 +1104,10 @@
         <v>54</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>15</v>
@@ -1130,7 +1127,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>69</v>
@@ -1139,10 +1136,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>15</v>
@@ -1171,10 +1168,10 @@
         <v>56</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>15</v>

--- a/Assets/邮件文本表.xlsx
+++ b/Assets/邮件文本表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Novelist_Game\Nonsense_Novelist\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\文梦铭心\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553D2528-8B07-4A18-A089-743D808DC1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7621E75E-ADD7-476A-899C-17F961C6EA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="1320" windowWidth="17190" windowHeight="11090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8000" yWindow="1640" windowWidth="17190" windowHeight="11090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>佐佐木编辑</t>
+  </si>
+  <si>
+    <t>佐佐木编辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,6 +323,14 @@
   </si>
   <si>
     <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autherNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,57 +702,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="2" width="12" style="8" customWidth="1"/>
-    <col min="3" max="4" width="9" style="8"/>
-    <col min="5" max="5" width="46.08203125" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="8"/>
+    <col min="2" max="3" width="12" style="8" customWidth="1"/>
+    <col min="4" max="5" width="9" style="8"/>
+    <col min="6" max="6" width="46.08203125" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="52" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -749,31 +760,34 @@
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -781,31 +795,40 @@
         <v>18</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="G3" s="8" t="s">
         <v>86</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -813,29 +836,40 @@
         <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="G4" s="8" t="s">
         <v>86</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
@@ -843,31 +877,40 @@
         <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="G5" s="8" t="s">
         <v>86</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -875,29 +918,40 @@
         <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="G6" s="8" t="s">
         <v>86</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -905,31 +959,40 @@
         <v>22</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="G7" s="8" t="s">
         <v>86</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="39" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
@@ -937,29 +1000,40 @@
         <v>23</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="G8" s="8" t="s">
         <v>86</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
@@ -967,31 +1041,40 @@
         <v>32</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="G9" s="8" t="s">
         <v>86</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="I9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="39" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
@@ -999,31 +1082,40 @@
         <v>33</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="G10" s="8" t="s">
         <v>86</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="39" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>26</v>
       </c>
@@ -1031,31 +1123,40 @@
         <v>35</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="G11" s="8" t="s">
         <v>86</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="I11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="M11" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="39" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
@@ -1063,31 +1164,40 @@
         <v>37</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="G12" s="8" t="s">
         <v>86</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="I12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="52" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="52" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>28</v>
       </c>
@@ -1095,31 +1205,40 @@
         <v>34</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="G13" s="8" t="s">
         <v>86</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="I13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="M13" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="39" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
@@ -1127,31 +1246,40 @@
         <v>38</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="G14" s="8" t="s">
         <v>86</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="I14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="M14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="39" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
@@ -1159,27 +1287,36 @@
         <v>36</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="G15" s="8" t="s">
         <v>86</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="I15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="M15" s="8" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Assets/邮件文本表.xlsx
+++ b/Assets/邮件文本表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Novelist_Game\Nonsense_Novelist\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF19FEB-CA2B-487E-BB75-1C0D5E559029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D2C4FC-31F6-4DEB-9197-5D907ABF5CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -739,17 +739,17 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="3" width="12" style="8" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="9" style="8"/>
-    <col min="6" max="6" width="46.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="46.08203125" style="8" customWidth="1"/>
     <col min="7" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="65" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -793,7 +793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -831,7 +831,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -875,7 +875,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -919,7 +919,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="26" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="39" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="26" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="39" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="39" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="39" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="52" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="39" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="39" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="52" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>89</v>
       </c>

--- a/Assets/邮件文本表.xlsx
+++ b/Assets/邮件文本表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Novelist_Game\Nonsense_Novelist\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D2C4FC-31F6-4DEB-9197-5D907ABF5CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075AFE25-3E34-47A9-87DC-2469E0E61535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,325 +43,327 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>100103</t>
+  </si>
+  <si>
+    <t>100104</t>
+  </si>
+  <si>
+    <t>100105</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报社1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报社2</t>
+  </si>
+  <si>
+    <t>报社3</t>
+  </si>
+  <si>
+    <t>报社4</t>
+  </si>
+  <si>
+    <t>报社5</t>
+  </si>
+  <si>
+    <t>报社6</t>
+  </si>
+  <si>
+    <t>100201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202</t>
+  </si>
+  <si>
+    <t>100203</t>
+  </si>
+  <si>
+    <t>100204</t>
+  </si>
+  <si>
+    <t>100205</t>
+  </si>
+  <si>
+    <t>100206</t>
+  </si>
+  <si>
+    <t>100207</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂热粉丝1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂热粉丝2</t>
+  </si>
+  <si>
+    <t>医生2</t>
+  </si>
+  <si>
+    <t>医生3</t>
+  </si>
+  <si>
+    <t>信件id</t>
+  </si>
+  <si>
+    <t>信件内容</t>
+  </si>
+  <si>
+    <t>读者评分</t>
+  </si>
+  <si>
+    <t>是否已读</t>
+  </si>
+  <si>
+    <t>触发机制说明(包括附带数据的用途)</t>
+  </si>
+  <si>
+    <t>触发机制附带数据</t>
+  </si>
+  <si>
+    <t>给你准备的蜥蜴粉每天记得冲泡，我在杂志上看到你的文章了，你不会以那种状态还在继续写作吧。</t>
+  </si>
+  <si>
+    <t>您忠诚的谦卑的读者无比焦急地等待您的新作，看不到您作品的每一天，我都在抑制将您拉入地狱的想法，愿您早日结束对我的折磨。</t>
+  </si>
+  <si>
+    <t>蜥蜴粉已无法影响你那异常的大脑神经，现在只能充当你写作时的安慰剂了，虽然很抱歉，但我不得不说，你这样是咎由自取，我以朋友的身份向你提出忠告：停止写作，接受治疗。</t>
+  </si>
+  <si>
+    <t>您上次邮寄的作品已被刊登至第5期，另外，请您下次别再拖延至截稿日期后，您知道的，就算是您这样的作家，也不是次次都能宽限时间的。</t>
+  </si>
+  <si>
+    <t>您忠诚的谦卑的读者拜读了您的新作，宛如行走沙漠时渴死的人饮下突降的甘霖，但不够，还不够，这种饥渴控制了我的神经，它现在敏感又脆弱，只有您，只有您能解救我，否则您只能和我一起下地狱了，盼望您的新作。</t>
+  </si>
+  <si>
+    <t>您最近定是沐浴在灵感缪斯的光耀下，您的用词、句式极有活力，您的创造力前人不及，您的作品让我们欲罢不能，期盼您的新作，您知道这也是无数读者的心愿。</t>
+  </si>
+  <si>
+    <t>写作貌似对你有着致命的蛊惑，我无法确认它是否是你精神异常的元凶，但有一点毋庸置疑，你的大脑已出现了部分异变，这是极为危险的征兆。</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很抱歉，我不能违背自己的良心，这实在是极为平庸的作品，也许流浪汉常光顾的二流书摊是它更适合的归宿。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然我很抱歉，但这确实是我见过最为糟糕的作品，它的逻辑行文让我做了整整三天的噩梦，求您别再惩罚我了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已收到您的作品，虽然它无太多出彩之处，但我想读者在享用下午茶时，会很乐意阅读这样简洁的故事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我敢说您的作品会创造新的流派，简洁的文风，犀利的观点，巧妙的结构，定会引起文学界的轩然大波，我很荣幸见证此刻。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您近日的新作如缪斯再世，优美的辞藻，深刻的思想，丰富的想象，阅读您的作品真是莫大的享受。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这和您往日的文风不太相符，我猜也许这是某种尝试的雏形，期待您更精彩的文章。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安德森</t>
+  </si>
+  <si>
+    <t>安德森先生</t>
+  </si>
+  <si>
+    <t>尊敬的安德森先生</t>
+  </si>
+  <si>
+    <t>报社编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲爱的安德森</t>
+  </si>
+  <si>
+    <t>亲爱的安德森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伟大的安德森</t>
+  </si>
+  <si>
+    <t>伟大的安德森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200-300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300-400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500-600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的忠实粉丝彼得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件内容ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件数量数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autherType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发件人Id：此处为用于区分发件人的数字编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autherName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发件人称呼：用于信件收尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否显示 :此时信件是否载入信箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mailName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>称呼：发件人对收件人的称呼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDisplay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件是否已经领取：维护玩家是否领取了这个附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachIsTake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读者评分模块：只有在报社编辑的详情需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文森特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书馆2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书馆1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克劳医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安德森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>100101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>100102</t>
-  </si>
-  <si>
-    <t>100103</t>
-  </si>
-  <si>
-    <t>100104</t>
-  </si>
-  <si>
-    <t>100105</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报社1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报社2</t>
-  </si>
-  <si>
-    <t>报社3</t>
-  </si>
-  <si>
-    <t>报社4</t>
-  </si>
-  <si>
-    <t>报社5</t>
-  </si>
-  <si>
-    <t>报社6</t>
-  </si>
-  <si>
-    <t>100201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100202</t>
-  </si>
-  <si>
-    <t>100203</t>
-  </si>
-  <si>
-    <t>100204</t>
-  </si>
-  <si>
-    <t>100205</t>
-  </si>
-  <si>
-    <t>100206</t>
-  </si>
-  <si>
-    <t>100207</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂热粉丝1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂热粉丝2</t>
-  </si>
-  <si>
-    <t>医生2</t>
-  </si>
-  <si>
-    <t>医生3</t>
-  </si>
-  <si>
-    <t>信件id</t>
-  </si>
-  <si>
-    <t>信件内容</t>
-  </si>
-  <si>
-    <t>读者评分</t>
-  </si>
-  <si>
-    <t>是否已读</t>
-  </si>
-  <si>
-    <t>触发机制说明(包括附带数据的用途)</t>
-  </si>
-  <si>
-    <t>触发机制附带数据</t>
-  </si>
-  <si>
-    <t>给你准备的蜥蜴粉每天记得冲泡，我在杂志上看到你的文章了，你不会以那种状态还在继续写作吧。</t>
-  </si>
-  <si>
-    <t>您忠诚的谦卑的读者无比焦急地等待您的新作，看不到您作品的每一天，我都在抑制将您拉入地狱的想法，愿您早日结束对我的折磨。</t>
-  </si>
-  <si>
-    <t>蜥蜴粉已无法影响你那异常的大脑神经，现在只能充当你写作时的安慰剂了，虽然很抱歉，但我不得不说，你这样是咎由自取，我以朋友的身份向你提出忠告：停止写作，接受治疗。</t>
-  </si>
-  <si>
-    <t>您上次邮寄的作品已被刊登至第5期，另外，请您下次别再拖延至截稿日期后，您知道的，就算是您这样的作家，也不是次次都能宽限时间的。</t>
-  </si>
-  <si>
-    <t>您忠诚的谦卑的读者拜读了您的新作，宛如行走沙漠时渴死的人饮下突降的甘霖，但不够，还不够，这种饥渴控制了我的神经，它现在敏感又脆弱，只有您，只有您能解救我，否则您只能和我一起下地狱了，盼望您的新作。</t>
-  </si>
-  <si>
-    <t>您最近定是沐浴在灵感缪斯的光耀下，您的用词、句式极有活力，您的创造力前人不及，您的作品让我们欲罢不能，期盼您的新作，您知道这也是无数读者的心愿。</t>
-  </si>
-  <si>
-    <t>写作貌似对你有着致命的蛊惑，我无法确认它是否是你精神异常的元凶，但有一点毋庸置疑，你的大脑已出现了部分异变，这是极为危险的征兆。</t>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很抱歉，我不能违背自己的良心，这实在是极为平庸的作品，也许流浪汉常光顾的二流书摊是它更适合的归宿。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虽然我很抱歉，但这确实是我见过最为糟糕的作品，它的逻辑行文让我做了整整三天的噩梦，求您别再惩罚我了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已收到您的作品，虽然它无太多出彩之处，但我想读者在享用下午茶时，会很乐意阅读这样简洁的故事。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我敢说您的作品会创造新的流派，简洁的文风，犀利的观点，巧妙的结构，定会引起文学界的轩然大波，我很荣幸见证此刻。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您近日的新作如缪斯再世，优美的辞藻，深刻的思想，丰富的想象，阅读您的作品真是莫大的享受。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这和您往日的文风不太相符，我猜也许这是某种尝试的雏形，期待您更精彩的文章。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安德森</t>
-  </si>
-  <si>
-    <t>安德森先生</t>
-  </si>
-  <si>
-    <t>尊敬的安德森先生</t>
-  </si>
-  <si>
-    <t>报社编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亲爱的安德森</t>
-  </si>
-  <si>
-    <t>亲爱的安德森</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伟大的安德森</t>
-  </si>
-  <si>
-    <t>伟大的安德森</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200-300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300-400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400-500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500-600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的忠实粉丝彼得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件内容ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件数量数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autherType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发件人Id：此处为用于区分发件人的数字编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autherName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发件人称呼：用于信件收尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否显示 :此时信件是否载入信箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mailName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>称呼：发件人对收件人的称呼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDisplay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attachId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attachNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件是否已经领取：维护玩家是否领取了这个附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attachIsTake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读者评分模块：只有在报社编辑的详情需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文森特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图书馆2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图书馆1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克劳医生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安德森</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -751,46 +753,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="65" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="H1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="L1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.3">
@@ -798,16 +800,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>1</v>
@@ -819,16 +821,16 @@
         <v>3</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="26" x14ac:dyDescent="0.3">
@@ -836,576 +838,576 @@
         <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="26" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="N7" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="39" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="26" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="39" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="39" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="39" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="52" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="39" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="N14" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="39" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="52" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/邮件文本表.xlsx
+++ b/Assets/邮件文本表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Novelist_Game\Nonsense_Novelist\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075AFE25-3E34-47A9-87DC-2469E0E61535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18DF1C2-CF1F-4B86-936D-B20ED035FD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6700" yWindow="1120" windowWidth="16980" windowHeight="11090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,321 +49,323 @@
     <t>100104</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报社1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报社2</t>
+  </si>
+  <si>
+    <t>报社3</t>
+  </si>
+  <si>
+    <t>报社4</t>
+  </si>
+  <si>
+    <t>报社5</t>
+  </si>
+  <si>
+    <t>报社6</t>
+  </si>
+  <si>
+    <t>100201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202</t>
+  </si>
+  <si>
+    <t>100203</t>
+  </si>
+  <si>
+    <t>100204</t>
+  </si>
+  <si>
+    <t>100205</t>
+  </si>
+  <si>
+    <t>100207</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂热粉丝1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂热粉丝2</t>
+  </si>
+  <si>
+    <t>医生2</t>
+  </si>
+  <si>
+    <t>医生3</t>
+  </si>
+  <si>
+    <t>信件id</t>
+  </si>
+  <si>
+    <t>信件内容</t>
+  </si>
+  <si>
+    <t>读者评分</t>
+  </si>
+  <si>
+    <t>是否已读</t>
+  </si>
+  <si>
+    <t>触发机制说明(包括附带数据的用途)</t>
+  </si>
+  <si>
+    <t>触发机制附带数据</t>
+  </si>
+  <si>
+    <t>给你准备的蜥蜴粉每天记得冲泡，我在杂志上看到你的文章了，你不会以那种状态还在继续写作吧。</t>
+  </si>
+  <si>
+    <t>您忠诚的谦卑的读者无比焦急地等待您的新作，看不到您作品的每一天，我都在抑制将您拉入地狱的想法，愿您早日结束对我的折磨。</t>
+  </si>
+  <si>
+    <t>蜥蜴粉已无法影响你那异常的大脑神经，现在只能充当你写作时的安慰剂了，虽然很抱歉，但我不得不说，你这样是咎由自取，我以朋友的身份向你提出忠告：停止写作，接受治疗。</t>
+  </si>
+  <si>
+    <t>您上次邮寄的作品已被刊登至第5期，另外，请您下次别再拖延至截稿日期后，您知道的，就算是您这样的作家，也不是次次都能宽限时间的。</t>
+  </si>
+  <si>
+    <t>您忠诚的谦卑的读者拜读了您的新作，宛如行走沙漠时渴死的人饮下突降的甘霖，但不够，还不够，这种饥渴控制了我的神经，它现在敏感又脆弱，只有您，只有您能解救我，否则您只能和我一起下地狱了，盼望您的新作。</t>
+  </si>
+  <si>
+    <t>您最近定是沐浴在灵感缪斯的光耀下，您的用词、句式极有活力，您的创造力前人不及，您的作品让我们欲罢不能，期盼您的新作，您知道这也是无数读者的心愿。</t>
+  </si>
+  <si>
+    <t>写作貌似对你有着致命的蛊惑，我无法确认它是否是你精神异常的元凶，但有一点毋庸置疑，你的大脑已出现了部分异变，这是极为危险的征兆。</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很抱歉，我不能违背自己的良心，这实在是极为平庸的作品，也许流浪汉常光顾的二流书摊是它更适合的归宿。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然我很抱歉，但这确实是我见过最为糟糕的作品，它的逻辑行文让我做了整整三天的噩梦，求您别再惩罚我了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已收到您的作品，虽然它无太多出彩之处，但我想读者在享用下午茶时，会很乐意阅读这样简洁的故事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我敢说您的作品会创造新的流派，简洁的文风，犀利的观点，巧妙的结构，定会引起文学界的轩然大波，我很荣幸见证此刻。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您近日的新作如缪斯再世，优美的辞藻，深刻的思想，丰富的想象，阅读您的作品真是莫大的享受。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这和您往日的文风不太相符，我猜也许这是某种尝试的雏形，期待您更精彩的文章。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安德森</t>
+  </si>
+  <si>
+    <t>安德森先生</t>
+  </si>
+  <si>
+    <t>尊敬的安德森先生</t>
+  </si>
+  <si>
+    <t>报社编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲爱的安德森</t>
+  </si>
+  <si>
+    <t>亲爱的安德森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伟大的安德森</t>
+  </si>
+  <si>
+    <t>伟大的安德森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200-300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300-400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500-600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的忠实粉丝彼得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件内容ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件数量数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autherType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发件人Id：此处为用于区分发件人的数字编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autherName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发件人称呼：用于信件收尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否显示 :此时信件是否载入信箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mailName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>称呼：发件人对收件人的称呼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDisplay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件是否已经领取：维护玩家是否领取了这个附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachIsTake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读者评分模块：只有在报社编辑的详情需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文森特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书馆2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书馆1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克劳医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安德森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>100105</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报社1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报社2</t>
-  </si>
-  <si>
-    <t>报社3</t>
-  </si>
-  <si>
-    <t>报社4</t>
-  </si>
-  <si>
-    <t>报社5</t>
-  </si>
-  <si>
-    <t>报社6</t>
-  </si>
-  <si>
-    <t>100201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100202</t>
-  </si>
-  <si>
-    <t>100203</t>
-  </si>
-  <si>
-    <t>100204</t>
-  </si>
-  <si>
-    <t>100205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>100206</t>
-  </si>
-  <si>
-    <t>100207</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂热粉丝1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂热粉丝2</t>
-  </si>
-  <si>
-    <t>医生2</t>
-  </si>
-  <si>
-    <t>医生3</t>
-  </si>
-  <si>
-    <t>信件id</t>
-  </si>
-  <si>
-    <t>信件内容</t>
-  </si>
-  <si>
-    <t>读者评分</t>
-  </si>
-  <si>
-    <t>是否已读</t>
-  </si>
-  <si>
-    <t>触发机制说明(包括附带数据的用途)</t>
-  </si>
-  <si>
-    <t>触发机制附带数据</t>
-  </si>
-  <si>
-    <t>给你准备的蜥蜴粉每天记得冲泡，我在杂志上看到你的文章了，你不会以那种状态还在继续写作吧。</t>
-  </si>
-  <si>
-    <t>您忠诚的谦卑的读者无比焦急地等待您的新作，看不到您作品的每一天，我都在抑制将您拉入地狱的想法，愿您早日结束对我的折磨。</t>
-  </si>
-  <si>
-    <t>蜥蜴粉已无法影响你那异常的大脑神经，现在只能充当你写作时的安慰剂了，虽然很抱歉，但我不得不说，你这样是咎由自取，我以朋友的身份向你提出忠告：停止写作，接受治疗。</t>
-  </si>
-  <si>
-    <t>您上次邮寄的作品已被刊登至第5期，另外，请您下次别再拖延至截稿日期后，您知道的，就算是您这样的作家，也不是次次都能宽限时间的。</t>
-  </si>
-  <si>
-    <t>您忠诚的谦卑的读者拜读了您的新作，宛如行走沙漠时渴死的人饮下突降的甘霖，但不够，还不够，这种饥渴控制了我的神经，它现在敏感又脆弱，只有您，只有您能解救我，否则您只能和我一起下地狱了，盼望您的新作。</t>
-  </si>
-  <si>
-    <t>您最近定是沐浴在灵感缪斯的光耀下，您的用词、句式极有活力，您的创造力前人不及，您的作品让我们欲罢不能，期盼您的新作，您知道这也是无数读者的心愿。</t>
-  </si>
-  <si>
-    <t>写作貌似对你有着致命的蛊惑，我无法确认它是否是你精神异常的元凶，但有一点毋庸置疑，你的大脑已出现了部分异变，这是极为危险的征兆。</t>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很抱歉，我不能违背自己的良心，这实在是极为平庸的作品，也许流浪汉常光顾的二流书摊是它更适合的归宿。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虽然我很抱歉，但这确实是我见过最为糟糕的作品，它的逻辑行文让我做了整整三天的噩梦，求您别再惩罚我了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已收到您的作品，虽然它无太多出彩之处，但我想读者在享用下午茶时，会很乐意阅读这样简洁的故事。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我敢说您的作品会创造新的流派，简洁的文风，犀利的观点，巧妙的结构，定会引起文学界的轩然大波，我很荣幸见证此刻。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您近日的新作如缪斯再世，优美的辞藻，深刻的思想，丰富的想象，阅读您的作品真是莫大的享受。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这和您往日的文风不太相符，我猜也许这是某种尝试的雏形，期待您更精彩的文章。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安德森</t>
-  </si>
-  <si>
-    <t>安德森先生</t>
-  </si>
-  <si>
-    <t>尊敬的安德森先生</t>
-  </si>
-  <si>
-    <t>报社编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亲爱的安德森</t>
-  </si>
-  <si>
-    <t>亲爱的安德森</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伟大的安德森</t>
-  </si>
-  <si>
-    <t>伟大的安德森</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200-300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300-400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400-500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500-600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的忠实粉丝彼得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件内容ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件数量数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autherType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发件人Id：此处为用于区分发件人的数字编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autherName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发件人称呼：用于信件收尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否显示 :此时信件是否载入信箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mailName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>称呼：发件人对收件人的称呼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDisplay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attachId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attachNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件是否已经领取：维护玩家是否领取了这个附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attachIsTake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读者评分模块：只有在报社编辑的详情需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文森特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图书馆2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图书馆1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克劳医生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安德森</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -753,46 +755,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="65" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="H1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="L1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.3">
@@ -800,16 +802,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>1</v>
@@ -821,16 +823,16 @@
         <v>3</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="26" x14ac:dyDescent="0.3">
@@ -838,131 +840,131 @@
         <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="26" x14ac:dyDescent="0.3">
@@ -970,43 +972,43 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="26" x14ac:dyDescent="0.3">
@@ -1014,400 +1016,400 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="39" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="N8" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="26" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="39" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="39" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="39" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="52" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="39" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="N14" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="39" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="52" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
